--- a/Experiment Material/Dataset for Replication/Dataset (response time - accuracy - fixation measures).xlsx
+++ b/Experiment Material/Dataset for Replication/Dataset (response time - accuracy - fixation measures).xlsx
@@ -28,7 +28,7 @@
     <t>Task (Refactoting - Project - Treatment)</t>
   </si>
   <si>
-    <t>Number of answer submissions</t>
+    <t>Acuracy (number of answer submissions)</t>
   </si>
   <si>
     <t>Time in Code (s)</t>
